--- a/biology/Botanique/Stauntonia/Stauntonia.xlsx
+++ b/biology/Botanique/Stauntonia/Stauntonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stauntonia est un genre de plantes de la famille des Lardizabalacées.
 </t>
@@ -511,15 +523,17 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre a les caractéristiques suivantes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre a les caractéristiques suivantes :
 il s'agit exclusivement de lianes au feuillage persistant, lianes pouvant atteindre une dimension importante (30 m pour Stauntonia yaoshanensis)
 les feuilles sont alternes (caractéristique de la famille) mais sont palmatiséquées ou trifoliolées) ; le nombre de folioles est de 3 à 9
 il s'agit de plantes généralement monoïques, mais parfois aussi dioïques
 les inflorescences sont paniculées, racémées et axillaires, de moins de dix fleurs
 les fleurs ont un calice de six sépales subimbriqués lancéolés et généralement monoïques
-les pétales sont généralement absents sauf pour les espèces qui ont été classées par Joseph Decaisne dans le genre Parvatia dont une des caractéristiques est la présence de pétales nectarifères[2]
+les pétales sont généralement absents sauf pour les espèces qui ont été classées par Joseph Decaisne dans le genre Parvatia dont une des caractéristiques est la présence de pétales nectarifères
 les étamines des fleurs mâles sont au nombre de six et adhérentes en une colonne staminale, avec ovaires abortives
 les fleurs femelles possèdent trois carpelles libres et six staminodes
 les ovules sont disposés en deux rangées parallèles au sein du carpelle de part et d'autre de sa suture
@@ -552,11 +566,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Augustin Pyrame de Candolle décrit une première fois en 1818 ce genre à partir d'un exemplaire de l'herbier de Sir Joseph Banks : Stauntonia chinensis ; le nom du genre est dédié à Sir George Leonard Staunton qui accompagna Lord George Macartney dans son ambassade en Chine[3].
-Le genre est porté à son maximum d'espèces par William Botting Hemsley en 1907 par inclusion des genres Holboellia, et Parvatia[4].
-Mais dès 1913, Alfred Rehder et Ernest Henry Wilson distinguent à nouveau les genres Holboellia et Stauntonia[5] alors que François Gagnepain, dès 1908, rétablit aussi le genre Parvatia[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Augustin Pyrame de Candolle décrit une première fois en 1818 ce genre à partir d'un exemplaire de l'herbier de Sir Joseph Banks : Stauntonia chinensis ; le nom du genre est dédié à Sir George Leonard Staunton qui accompagna Lord George Macartney dans son ambassade en Chine.
+Le genre est porté à son maximum d'espèces par William Botting Hemsley en 1907 par inclusion des genres Holboellia, et Parvatia.
+Mais dès 1913, Alfred Rehder et Ernest Henry Wilson distinguent à nouveau les genres Holboellia et Stauntonia alors que François Gagnepain, dès 1908, rétablit aussi le genre Parvatia.
 </t>
         </is>
       </c>
@@ -585,9 +601,11 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les genres Holboellia, Stauntonia et Parvatia de la famille des Lardizabalacées sont en très étroite relation. Cette proximité que soulignent les caractères végétatifs, a conduit à des fusions puis défusions de ces trois genres selon l'importance attachée à certains caractères ou non. Les études phylogénétiques récentes restent insuffisamment précises sur ce point : la plus complète à l'heure actuelle – dix espèces étudiées pour l'ensemble des trois genres -, celle de Wang Feng et al.[7], semble conduire à une fusion des trois genres, sauf découverte d'autres caractères discriminants.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les genres Holboellia, Stauntonia et Parvatia de la famille des Lardizabalacées sont en très étroite relation. Cette proximité que soulignent les caractères végétatifs, a conduit à des fusions puis défusions de ces trois genres selon l'importance attachée à certains caractères ou non. Les études phylogénétiques récentes restent insuffisamment précises sur ce point : la plus complète à l'heure actuelle – dix espèces étudiées pour l'ensemble des trois genres -, celle de Wang Feng et al., semble conduire à une fusion des trois genres, sauf découverte d'autres caractères discriminants.
 Le choix de les réunir ou séparer relève donc actuellement de considérations sur des différences de caractères botaniques assez ténues. Ces caractères – en séparant les genres - se résument ainsi :
 Dans l'attente d'une clarification – le genre Holboellia actuel ne semble pas monophyllétique – les genres sont conservés ici.
 </t>
@@ -618,9 +636,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre, qui en comprend le plus grand nombre dans la famille des Lardizabalacées, sont issues d'une synthèse[Par qui ?] entre les index The plant liste[8] et de la synthèse précise de Chen Dezhao et Tatemi Zhimizu[9] (les espèces maintenues dans le genre sont en caractère gras) :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre, qui en comprend le plus grand nombre dans la famille des Lardizabalacées, sont issues d'une synthèse[Par qui ?] entre les index The plant liste et de la synthèse précise de Chen Dezhao et Tatemi Zhimizu (les espèces maintenues dans le genre sont en caractère gras) :
 Stauntonia alata Merr. (1934) : voir : Stauntonia decora (Dunn) C.Y.Wu ex S.H.Huang
 Stauntonia angustifolia Wall. (1830) : voir Holboellia latifolia Wall.
 Stauntonia brachyanthera Hand.-Mazz. (1921) – synonyme : Stauntonia dielsiana Y.C.Wu
@@ -670,7 +690,7 @@
 Stauntonia trifoliata Griff. (1854) : voir Stauntonia brunoniana (Wall. ex Decne.) Hemsl.
 Stauntonia trinervia Merr. (1934) – synonyme : Stauntonia crassipes T.C.Chen
 Stauntonia yaoshanensis F.N.Wei &amp; S.L.Mo (1983 )
-Selon Tropicos                                           (3 août 2013)[10] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (3 août 2013) (Attention liste brute contenant possiblement des synonymes) :
 Stauntonia alata Merr.
 Stauntonia angustifolia Wall.
 Stauntonia brachyanthera Hand.-Mazz.
@@ -733,7 +753,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre est originaire  d'Asie de l'Est : Chine, Inde, Japon, Myanmar, Viêt Nam.
 Son utilisation ornementale l'a assez largement répandu dans les pays à climat tempéré.
@@ -765,7 +787,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fruits des espèces de ce genre sont comestibles (pulpe).
 L'usage de liane ornementale de quelques espèces commence à se répandre.
